--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8BF6C7-2706-4790-B8E5-2B8172C07424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2EB67D-9CA8-4A79-92DD-20980D449F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -166,12 +168,21 @@
     <t>CoinAdd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Attack_TowerGoblin1</t>
+  </si>
+  <si>
+    <t>Attack_TowerGoblin2</t>
+  </si>
+  <si>
+    <t>Attack_TowerGoblin3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,14 +221,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -239,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -260,17 +263,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -309,25 +301,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,25 +597,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="29.375" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -640,10 +630,10 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="9"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -662,7 +652,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -691,7 +681,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -706,10 +696,10 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="7"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -728,7 +718,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -759,7 +749,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -798,157 +788,95 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6" si="0">B6&amp;"_"&amp;C6</f>
         <v>CoinAdd_Attack_1</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7" si="1">B7&amp;"_"&amp;C7</f>
+        <f t="shared" ref="D7:D10" si="1">B7&amp;"_"&amp;C7</f>
         <v>CoinAdd_Auto_1</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>CoinAdd_Attack_TowerGoblin1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>CoinAdd_Attack_TowerGoblin2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>CoinAdd_Attack_TowerGoblin3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2EB67D-9CA8-4A79-92DD-20980D449F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B779A58-6099-496B-86AF-37381D3AE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -177,12 +177,24 @@
   <si>
     <t>Attack_TowerGoblin3</t>
   </si>
+  <si>
+    <t>CoinAdd</t>
+  </si>
+  <si>
+    <t>TowerAlchemy1</t>
+  </si>
+  <si>
+    <t>TowerAlchemy2</t>
+  </si>
+  <si>
+    <t>TowerAlchemy3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +228,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -301,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -320,6 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -597,17 +617,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
@@ -814,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D10" si="1">B7&amp;"_"&amp;C7</f>
+        <f t="shared" ref="D7:D13" si="1">B7&amp;"_"&amp;C7</f>
         <v>CoinAdd_Auto_1</v>
       </c>
       <c r="G7" t="s">
@@ -876,6 +896,60 @@
       </c>
       <c r="H10">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>CoinAdd_TowerAlchemy1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>CoinAdd_TowerAlchemy2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>CoinAdd_TowerAlchemy3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B779A58-6099-496B-86AF-37381D3AE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BD84B2-9ABB-4043-8717-27445B36DBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -327,6 +314,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,7 +327,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -620,7 +607,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,10 +637,10 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="10"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -716,10 +703,10 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="8"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -877,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -895,11 +882,11 @@
         <v>17</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
@@ -917,7 +904,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -935,7 +922,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BD84B2-9ABB-4043-8717-27445B36DBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA48690-8A92-43A8-873F-995541201B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -129,10 +140,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>map,CoinType,int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>货币类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -175,6 +182,10 @@
   </si>
   <si>
     <t>TowerAlchemy3</t>
+  </si>
+  <si>
+    <t>map,CoinTypeInGame,int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -607,22 +618,22 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="29.375" customWidth="1"/>
-    <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,7 +670,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -688,7 +699,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -704,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3"/>
@@ -725,7 +736,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -756,7 +767,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -772,10 +783,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -795,145 +806,145 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6" si="0">B6&amp;"_"&amp;C6</f>
         <v>CoinAdd_Attack_1</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7:D13" si="1">B7&amp;"_"&amp;C7</f>
         <v>CoinAdd_Auto_1</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
         <v>CoinAdd_Attack_TowerGoblin1</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v>CoinAdd_Attack_TowerGoblin2</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>CoinAdd_Attack_TowerGoblin3</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
         <v>CoinAdd_TowerAlchemy1</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
         <v>CoinAdd_TowerAlchemy2</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
         <v>CoinAdd_TowerAlchemy3</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13">
         <v>480</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
@@ -1,37 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA48690-8A92-43A8-873F-995541201B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE29E4F7-6358-4254-A538-7D82E0380FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -187,12 +179,23 @@
     <t>map,CoinTypeInGame,int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>炼金塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +236,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -318,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -338,6 +349,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -355,6 +370,994 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="防御塔"/>
+      <sheetName val="怪物"/>
+      <sheetName val="无限模式"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>名字</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>稀有度</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>性价比</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>价格</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>dps</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>特色</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>攻击LV1</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>攻击LV2</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>攻击LV3</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>技能cd</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>目标数量</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>射程</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>特殊参数</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>参数1</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>参数2</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>参数3</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>参数4</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>LV1攻击</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>LV2攻击</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>LV3攻击</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>弩箭塔</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>100</v>
+          </cell>
+          <cell r="E2">
+            <v>100</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="G2">
+            <v>50</v>
+          </cell>
+          <cell r="H2">
+            <v>225</v>
+          </cell>
+          <cell r="I2">
+            <v>1012</v>
+          </cell>
+          <cell r="J2">
+            <v>0.5</v>
+          </cell>
+          <cell r="K2">
+            <v>1</v>
+          </cell>
+          <cell r="L2">
+            <v>9</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>3级暴击率/爆伤</v>
+          </cell>
+          <cell r="N2">
+            <v>0.15</v>
+          </cell>
+          <cell r="O2">
+            <v>2</v>
+          </cell>
+          <cell r="R2">
+            <v>1</v>
+          </cell>
+          <cell r="S2">
+            <v>4.5</v>
+          </cell>
+          <cell r="T2">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>加农炮</v>
+          </cell>
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3">
+            <v>100</v>
+          </cell>
+          <cell r="E3">
+            <v>100</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="G3">
+            <v>17</v>
+          </cell>
+          <cell r="H3">
+            <v>76</v>
+          </cell>
+          <cell r="I3">
+            <v>344</v>
+          </cell>
+          <cell r="J3">
+            <v>0.5</v>
+          </cell>
+          <cell r="K3">
+            <v>3</v>
+          </cell>
+          <cell r="L3">
+            <v>9</v>
+          </cell>
+          <cell r="R3">
+            <v>1</v>
+          </cell>
+          <cell r="S3">
+            <v>4.5</v>
+          </cell>
+          <cell r="T3">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>200</v>
+          </cell>
+          <cell r="E4">
+            <v>200</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>灼烧</v>
+          </cell>
+          <cell r="G4">
+            <v>9</v>
+          </cell>
+          <cell r="H4">
+            <v>40</v>
+          </cell>
+          <cell r="I4">
+            <v>182</v>
+          </cell>
+          <cell r="J4">
+            <v>0.3</v>
+          </cell>
+          <cell r="K4">
+            <v>5</v>
+          </cell>
+          <cell r="L4">
+            <v>9</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>3级灼烧总伤害/总时间/间隔/输出补正</v>
+          </cell>
+          <cell r="N4">
+            <v>0.5</v>
+          </cell>
+          <cell r="O4">
+            <v>10</v>
+          </cell>
+          <cell r="P4">
+            <v>0.3</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.75</v>
+          </cell>
+          <cell r="R4">
+            <v>1</v>
+          </cell>
+          <cell r="S4">
+            <v>4.5</v>
+          </cell>
+          <cell r="T4">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>100</v>
+          </cell>
+          <cell r="E5">
+            <v>100</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>远处加成</v>
+          </cell>
+          <cell r="G5">
+            <v>3</v>
+          </cell>
+          <cell r="H5">
+            <v>13</v>
+          </cell>
+          <cell r="I5">
+            <v>60</v>
+          </cell>
+          <cell r="J5">
+            <v>0.3</v>
+          </cell>
+          <cell r="K5">
+            <v>7</v>
+          </cell>
+          <cell r="L5">
+            <v>9</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>远处增伤率</v>
+          </cell>
+          <cell r="N5">
+            <v>0.06</v>
+          </cell>
+          <cell r="R5">
+            <v>1</v>
+          </cell>
+          <cell r="S5">
+            <v>4.5</v>
+          </cell>
+          <cell r="T5">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>龙击炮</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>150</v>
+          </cell>
+          <cell r="E6">
+            <v>150</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>蓄力</v>
+          </cell>
+          <cell r="G6">
+            <v>300</v>
+          </cell>
+          <cell r="H6">
+            <v>1350</v>
+          </cell>
+          <cell r="I6">
+            <v>3037</v>
+          </cell>
+          <cell r="J6">
+            <v>2</v>
+          </cell>
+          <cell r="K6">
+            <v>1</v>
+          </cell>
+          <cell r="L6">
+            <v>9</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>3级目标</v>
+          </cell>
+          <cell r="N6">
+            <v>2</v>
+          </cell>
+          <cell r="R6">
+            <v>1</v>
+          </cell>
+          <cell r="S6">
+            <v>4.5</v>
+          </cell>
+          <cell r="T6">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>200</v>
+          </cell>
+          <cell r="E7">
+            <v>200</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>高处加成</v>
+          </cell>
+          <cell r="G7">
+            <v>133</v>
+          </cell>
+          <cell r="H7">
+            <v>598</v>
+          </cell>
+          <cell r="I7">
+            <v>538</v>
+          </cell>
+          <cell r="J7">
+            <v>1</v>
+          </cell>
+          <cell r="K7">
+            <v>1</v>
+          </cell>
+          <cell r="L7">
+            <v>7.5</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>低处增伤率，3级目标，加成高度</v>
+          </cell>
+          <cell r="N7">
+            <v>0.1</v>
+          </cell>
+          <cell r="O7">
+            <v>2</v>
+          </cell>
+          <cell r="P7">
+            <v>5</v>
+          </cell>
+          <cell r="R7">
+            <v>1</v>
+          </cell>
+          <cell r="S7">
+            <v>4.5</v>
+          </cell>
+          <cell r="T7">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>冰魔塔</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>100</v>
+          </cell>
+          <cell r="E8">
+            <v>100</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>减速</v>
+          </cell>
+          <cell r="G8">
+            <v>33</v>
+          </cell>
+          <cell r="H8">
+            <v>148</v>
+          </cell>
+          <cell r="I8">
+            <v>668</v>
+          </cell>
+          <cell r="J8">
+            <v>1</v>
+          </cell>
+          <cell r="K8">
+            <v>3</v>
+          </cell>
+          <cell r="L8">
+            <v>7.5</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>减速率lv1/2/3</v>
+          </cell>
+          <cell r="N8">
+            <v>0.25</v>
+          </cell>
+          <cell r="O8">
+            <v>0.4</v>
+          </cell>
+          <cell r="P8">
+            <v>0.5</v>
+          </cell>
+          <cell r="R8">
+            <v>1</v>
+          </cell>
+          <cell r="S8">
+            <v>4.5</v>
+          </cell>
+          <cell r="T8">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="B9">
+            <v>2</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>150</v>
+          </cell>
+          <cell r="E9">
+            <v>150</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>生产金币</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>每回合金币</v>
+          </cell>
+          <cell r="N9">
+            <v>30</v>
+          </cell>
+          <cell r="O9">
+            <v>120</v>
+          </cell>
+          <cell r="P9">
+            <v>480</v>
+          </cell>
+          <cell r="R9">
+            <v>1</v>
+          </cell>
+          <cell r="S9">
+            <v>4.5</v>
+          </cell>
+          <cell r="T9">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>加速塔</v>
+          </cell>
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>100</v>
+          </cell>
+          <cell r="E10">
+            <v>100</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>加速</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+          <cell r="L10">
+            <v>7.5</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>CD减少lv1/2/3</v>
+          </cell>
+          <cell r="N10">
+            <v>0.3</v>
+          </cell>
+          <cell r="O10">
+            <v>0.5</v>
+          </cell>
+          <cell r="P10">
+            <v>0.6</v>
+          </cell>
+          <cell r="R10">
+            <v>1</v>
+          </cell>
+          <cell r="S10">
+            <v>4.5</v>
+          </cell>
+          <cell r="T10">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="B11">
+            <v>2</v>
+          </cell>
+          <cell r="C11">
+            <v>1</v>
+          </cell>
+          <cell r="D11">
+            <v>150</v>
+          </cell>
+          <cell r="E11">
+            <v>150</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>中毒</v>
+          </cell>
+          <cell r="G11">
+            <v>75</v>
+          </cell>
+          <cell r="H11">
+            <v>337</v>
+          </cell>
+          <cell r="I11">
+            <v>1518</v>
+          </cell>
+          <cell r="J11">
+            <v>1</v>
+          </cell>
+          <cell r="K11">
+            <v>1</v>
+          </cell>
+          <cell r="L11">
+            <v>9</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>毒伤lv1/2/3/输出补正</v>
+          </cell>
+          <cell r="N11">
+            <v>0.01</v>
+          </cell>
+          <cell r="O11">
+            <v>0.02</v>
+          </cell>
+          <cell r="P11">
+            <v>0.03</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.5</v>
+          </cell>
+          <cell r="R11">
+            <v>1</v>
+          </cell>
+          <cell r="S11">
+            <v>4.5</v>
+          </cell>
+          <cell r="T11">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="B12">
+            <v>3</v>
+          </cell>
+          <cell r="C12">
+            <v>1</v>
+          </cell>
+          <cell r="D12">
+            <v>200</v>
+          </cell>
+          <cell r="E12">
+            <v>200</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>消耗型</v>
+          </cell>
+          <cell r="G12">
+            <v>2000</v>
+          </cell>
+          <cell r="H12">
+            <v>9000</v>
+          </cell>
+          <cell r="I12">
+            <v>40500</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>7.5</v>
+          </cell>
+          <cell r="M12" t="str">
+            <v>伤害/眩晕</v>
+          </cell>
+          <cell r="N12">
+            <v>2000</v>
+          </cell>
+          <cell r="O12">
+            <v>3</v>
+          </cell>
+          <cell r="R12">
+            <v>1</v>
+          </cell>
+          <cell r="S12">
+            <v>4.5</v>
+          </cell>
+          <cell r="T12">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="B13">
+            <v>1</v>
+          </cell>
+          <cell r="C13">
+            <v>1</v>
+          </cell>
+          <cell r="D13">
+            <v>100</v>
+          </cell>
+          <cell r="E13">
+            <v>100</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>偷金币</v>
+          </cell>
+          <cell r="G13">
+            <v>50</v>
+          </cell>
+          <cell r="H13">
+            <v>225</v>
+          </cell>
+          <cell r="I13">
+            <v>1012</v>
+          </cell>
+          <cell r="J13">
+            <v>1</v>
+          </cell>
+          <cell r="K13">
+            <v>1</v>
+          </cell>
+          <cell r="L13">
+            <v>7.5</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>偷钱数lv1/2/3/输出补正</v>
+          </cell>
+          <cell r="N13">
+            <v>1</v>
+          </cell>
+          <cell r="O13">
+            <v>4</v>
+          </cell>
+          <cell r="P13">
+            <v>15</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.5</v>
+          </cell>
+          <cell r="R13">
+            <v>1</v>
+          </cell>
+          <cell r="S13">
+            <v>4.5</v>
+          </cell>
+          <cell r="T13">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>火箭塔</v>
+          </cell>
+          <cell r="B14">
+            <v>2</v>
+          </cell>
+          <cell r="C14">
+            <v>1</v>
+          </cell>
+          <cell r="D14">
+            <v>150</v>
+          </cell>
+          <cell r="E14">
+            <v>150</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>抛物线</v>
+          </cell>
+          <cell r="G14">
+            <v>65</v>
+          </cell>
+          <cell r="H14">
+            <v>292</v>
+          </cell>
+          <cell r="I14">
+            <v>1316</v>
+          </cell>
+          <cell r="J14">
+            <v>2</v>
+          </cell>
+          <cell r="K14">
+            <v>3</v>
+          </cell>
+          <cell r="L14">
+            <v>9</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>远处增伤率lv1/2/3</v>
+          </cell>
+          <cell r="N14">
+            <v>0.06</v>
+          </cell>
+          <cell r="R14">
+            <v>1</v>
+          </cell>
+          <cell r="S14">
+            <v>4.5</v>
+          </cell>
+          <cell r="T14">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>魔像</v>
+          </cell>
+          <cell r="B15">
+            <v>2</v>
+          </cell>
+          <cell r="C15">
+            <v>1</v>
+          </cell>
+          <cell r="D15">
+            <v>150</v>
+          </cell>
+          <cell r="E15">
+            <v>150</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>击退</v>
+          </cell>
+          <cell r="G15">
+            <v>100</v>
+          </cell>
+          <cell r="H15">
+            <v>450</v>
+          </cell>
+          <cell r="I15">
+            <v>2025</v>
+          </cell>
+          <cell r="J15">
+            <v>2</v>
+          </cell>
+          <cell r="K15">
+            <v>3</v>
+          </cell>
+          <cell r="L15">
+            <v>7.5</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>近处增伤率lv1/2/3；眩晕时间</v>
+          </cell>
+          <cell r="N15">
+            <v>-7.0000000000000007E-2</v>
+          </cell>
+          <cell r="O15">
+            <v>1</v>
+          </cell>
+          <cell r="R15">
+            <v>1</v>
+          </cell>
+          <cell r="S15">
+            <v>4.5</v>
+          </cell>
+          <cell r="T15">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>水晶</v>
+          </cell>
+          <cell r="B16">
+            <v>2</v>
+          </cell>
+          <cell r="C16">
+            <v>1</v>
+          </cell>
+          <cell r="D16">
+            <v>150</v>
+          </cell>
+          <cell r="E16">
+            <v>150</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>穿透</v>
+          </cell>
+          <cell r="G16">
+            <v>100</v>
+          </cell>
+          <cell r="H16">
+            <v>450</v>
+          </cell>
+          <cell r="I16">
+            <v>2025</v>
+          </cell>
+          <cell r="J16">
+            <v>2</v>
+          </cell>
+          <cell r="K16">
+            <v>3</v>
+          </cell>
+          <cell r="L16">
+            <v>7.5</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>3级射程</v>
+          </cell>
+          <cell r="N16">
+            <v>15</v>
+          </cell>
+          <cell r="R16">
+            <v>1</v>
+          </cell>
+          <cell r="S16">
+            <v>4.5</v>
+          </cell>
+          <cell r="T16">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>奥术天球</v>
+          </cell>
+          <cell r="B17">
+            <v>2</v>
+          </cell>
+          <cell r="C17">
+            <v>1</v>
+          </cell>
+          <cell r="D17">
+            <v>150</v>
+          </cell>
+          <cell r="E17">
+            <v>150</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>多弹道</v>
+          </cell>
+          <cell r="G17">
+            <v>50</v>
+          </cell>
+          <cell r="H17">
+            <v>225</v>
+          </cell>
+          <cell r="I17">
+            <v>1518</v>
+          </cell>
+          <cell r="J17">
+            <v>2</v>
+          </cell>
+          <cell r="K17">
+            <v>1</v>
+          </cell>
+          <cell r="L17">
+            <v>9</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>1、2级弹药/3级弹药</v>
+          </cell>
+          <cell r="N17">
+            <v>6</v>
+          </cell>
+          <cell r="O17">
+            <v>9</v>
+          </cell>
+          <cell r="R17">
+            <v>1</v>
+          </cell>
+          <cell r="S17">
+            <v>4.5</v>
+          </cell>
+          <cell r="T17">
+            <v>20.25</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,22 +1621,22 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="29.375" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -652,8 +1655,8 @@
         <v>13</v>
       </c>
       <c r="H1" s="10"/>
-      <c r="I1"/>
-      <c r="J1"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -670,7 +1673,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -681,8 +1684,8 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -699,7 +1702,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -718,8 +1721,8 @@
         <v>27</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -736,7 +1739,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -749,8 +1752,8 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -767,7 +1770,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -788,8 +1791,12 @@
       <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -806,7 +1813,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -824,7 +1831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -842,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -857,10 +1864,17 @@
         <v>16</v>
       </c>
       <c r="H8">
+        <f>VLOOKUP(I8,[1]防御塔!$A:$T,13+J8,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -875,10 +1889,17 @@
         <v>16</v>
       </c>
       <c r="H9">
+        <f>VLOOKUP(I9,[1]防御塔!$A:$T,13+J9,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -893,10 +1914,17 @@
         <v>16</v>
       </c>
       <c r="H10">
+        <f>VLOOKUP(I10,[1]防御塔!$A:$T,13+J10,FALSE)</f>
         <v>15</v>
       </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
@@ -911,10 +1939,17 @@
         <v>16</v>
       </c>
       <c r="H11">
+        <f>VLOOKUP(I11,[1]防御塔!$A:$T,13+J11,FALSE)</f>
         <v>30</v>
       </c>
+      <c r="I11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
@@ -929,10 +1964,17 @@
         <v>16</v>
       </c>
       <c r="H12">
+        <f>VLOOKUP(I12,[1]防御塔!$A:$T,13+J12,FALSE)</f>
         <v>120</v>
       </c>
+      <c r="I12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
@@ -947,7 +1989,14 @@
         <v>16</v>
       </c>
       <c r="H13">
+        <f>VLOOKUP(I13,[1]防御塔!$A:$T,13+J13,FALSE)</f>
         <v>480</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CoinAdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE29E4F7-6358-4254-A538-7D82E0380FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B91DEF3-0BE0-4F59-BEC8-6E7B73166FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,6 +337,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,10 +353,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -381,7 +381,11 @@
     <sheetNames>
       <sheetName val="防御塔"/>
       <sheetName val="怪物"/>
+      <sheetName val="技能"/>
       <sheetName val="无限模式"/>
+      <sheetName val="挑战模式"/>
+      <sheetName val="引导"/>
+      <sheetName val="参考"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -464,16 +468,16 @@
             <v>100</v>
           </cell>
           <cell r="F2" t="str">
-            <v>快速</v>
+            <v>快速单体，2级连发，3级暴击</v>
           </cell>
           <cell r="G2">
             <v>50</v>
           </cell>
           <cell r="H2">
-            <v>225</v>
+            <v>90</v>
           </cell>
           <cell r="I2">
-            <v>1012</v>
+            <v>324</v>
           </cell>
           <cell r="J2">
             <v>0.5</v>
@@ -485,7 +489,7 @@
             <v>9</v>
           </cell>
           <cell r="M2" t="str">
-            <v>3级暴击率/爆伤</v>
+            <v>3级暴击率/爆伤/23级连发数</v>
           </cell>
           <cell r="N2">
             <v>0.15</v>
@@ -493,14 +497,17 @@
           <cell r="O2">
             <v>2</v>
           </cell>
+          <cell r="P2">
+            <v>2</v>
+          </cell>
           <cell r="R2">
             <v>1</v>
           </cell>
           <cell r="S2">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T2">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="3">
@@ -520,34 +527,40 @@
             <v>100</v>
           </cell>
           <cell r="F3" t="str">
-            <v>快速</v>
+            <v>快速群体，2级3次高爆弹，3级全高爆弹</v>
           </cell>
           <cell r="G3">
-            <v>17</v>
+            <v>25</v>
           </cell>
           <cell r="H3">
-            <v>76</v>
+            <v>54</v>
           </cell>
           <cell r="I3">
-            <v>344</v>
+            <v>324</v>
           </cell>
           <cell r="J3">
             <v>0.5</v>
           </cell>
           <cell r="K3">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="L3">
             <v>9</v>
           </cell>
+          <cell r="M3" t="str">
+            <v>2级高爆倍率</v>
+          </cell>
+          <cell r="N3">
+            <v>3</v>
+          </cell>
           <cell r="R3">
             <v>1</v>
           </cell>
           <cell r="S3">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T3">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="4">
@@ -558,31 +571,31 @@
             <v>3</v>
           </cell>
           <cell r="C4">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D4">
-            <v>200</v>
+            <v>400</v>
           </cell>
           <cell r="E4">
-            <v>200</v>
+            <v>560</v>
           </cell>
           <cell r="F4" t="str">
-            <v>灼烧</v>
+            <v>直线点燃，2级扇形，3级永久点燃</v>
           </cell>
           <cell r="G4">
-            <v>9</v>
+            <v>17</v>
           </cell>
           <cell r="H4">
-            <v>40</v>
+            <v>61</v>
           </cell>
           <cell r="I4">
-            <v>182</v>
+            <v>220</v>
           </cell>
           <cell r="J4">
             <v>0.3</v>
           </cell>
           <cell r="K4">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="L4">
             <v>9</v>
@@ -591,7 +604,7 @@
             <v>3级灼烧总伤害/总时间/间隔/输出补正</v>
           </cell>
           <cell r="N4">
-            <v>0.5</v>
+            <v>0.3</v>
           </cell>
           <cell r="O4">
             <v>10</v>
@@ -600,16 +613,16 @@
             <v>0.3</v>
           </cell>
           <cell r="Q4">
-            <v>0.75</v>
+            <v>0.7</v>
           </cell>
           <cell r="R4">
             <v>1</v>
           </cell>
           <cell r="S4">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T4">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="5">
@@ -617,28 +630,28 @@
             <v>毒雾塔</v>
           </cell>
           <cell r="B5">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="C5">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D5">
-            <v>100</v>
+            <v>200</v>
           </cell>
           <cell r="E5">
-            <v>100</v>
+            <v>240</v>
           </cell>
           <cell r="F5" t="str">
-            <v>远处加成</v>
+            <v>圆形群体，2级冰雾减速，3级破甲</v>
           </cell>
           <cell r="G5">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="H5">
-            <v>13</v>
+            <v>22</v>
           </cell>
           <cell r="I5">
-            <v>60</v>
+            <v>72</v>
           </cell>
           <cell r="J5">
             <v>0.3</v>
@@ -650,19 +663,25 @@
             <v>9</v>
           </cell>
           <cell r="M5" t="str">
-            <v>远处增伤率</v>
+            <v>远处增伤率/2级减速率/3级减甲价率</v>
           </cell>
           <cell r="N5">
             <v>0.06</v>
           </cell>
+          <cell r="O5">
+            <v>0.1</v>
+          </cell>
+          <cell r="P5">
+            <v>0.2</v>
+          </cell>
           <cell r="R5">
             <v>1</v>
           </cell>
           <cell r="S5">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T5">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="6">
@@ -673,28 +692,28 @@
             <v>2</v>
           </cell>
           <cell r="C6">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D6">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E6">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F6" t="str">
-            <v>蓄力</v>
+            <v>慢速单体，2级2连发，3级3连发</v>
           </cell>
           <cell r="G6">
-            <v>300</v>
+            <v>600</v>
           </cell>
           <cell r="H6">
-            <v>1350</v>
+            <v>1080</v>
           </cell>
           <cell r="I6">
-            <v>3037</v>
+            <v>2592</v>
           </cell>
           <cell r="J6">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K6">
             <v>1</v>
@@ -703,19 +722,22 @@
             <v>9</v>
           </cell>
           <cell r="M6" t="str">
-            <v>3级目标</v>
+            <v>2级目标/3级目标</v>
           </cell>
           <cell r="N6">
             <v>2</v>
           </cell>
+          <cell r="O6">
+            <v>3</v>
+          </cell>
           <cell r="R6">
             <v>1</v>
           </cell>
           <cell r="S6">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T6">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="7">
@@ -726,25 +748,25 @@
             <v>3</v>
           </cell>
           <cell r="C7">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D7">
-            <v>200</v>
+            <v>400</v>
           </cell>
           <cell r="E7">
-            <v>200</v>
+            <v>560</v>
           </cell>
           <cell r="F7" t="str">
-            <v>高处加成</v>
+            <v>高处加成，2级3次眩晕，3级2连</v>
           </cell>
           <cell r="G7">
-            <v>133</v>
+            <v>373</v>
           </cell>
           <cell r="H7">
-            <v>598</v>
+            <v>1342</v>
           </cell>
           <cell r="I7">
-            <v>538</v>
+            <v>2417</v>
           </cell>
           <cell r="J7">
             <v>1</v>
@@ -756,7 +778,7 @@
             <v>7.5</v>
           </cell>
           <cell r="M7" t="str">
-            <v>低处增伤率，3级目标，加成高度</v>
+            <v>低处增伤率，3级目标，加成高度，眩晕时间</v>
           </cell>
           <cell r="N7">
             <v>0.1</v>
@@ -771,10 +793,10 @@
             <v>1</v>
           </cell>
           <cell r="S7">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T7">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="8">
@@ -785,25 +807,25 @@
             <v>1</v>
           </cell>
           <cell r="C8">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="D8">
             <v>100</v>
           </cell>
           <cell r="E8">
-            <v>100</v>
+            <v>80</v>
           </cell>
           <cell r="F8" t="str">
-            <v>减速</v>
+            <v>减速，2级2目标，3级3目标</v>
           </cell>
           <cell r="G8">
-            <v>33</v>
+            <v>27</v>
           </cell>
           <cell r="H8">
-            <v>148</v>
+            <v>48</v>
           </cell>
           <cell r="I8">
-            <v>668</v>
+            <v>116</v>
           </cell>
           <cell r="J8">
             <v>1</v>
@@ -830,10 +852,10 @@
             <v>1</v>
           </cell>
           <cell r="S8">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T8">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="9">
@@ -844,13 +866,13 @@
             <v>2</v>
           </cell>
           <cell r="C9">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D9">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E9">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F9" t="str">
             <v>生产金币</v>
@@ -889,10 +911,10 @@
             <v>1</v>
           </cell>
           <cell r="S9">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T9">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="10">
@@ -912,7 +934,7 @@
             <v>100</v>
           </cell>
           <cell r="F10" t="str">
-            <v>加速</v>
+            <v>加速友军，2级加攻击，3级大范围</v>
           </cell>
           <cell r="G10">
             <v>0</v>
@@ -933,25 +955,28 @@
             <v>7.5</v>
           </cell>
           <cell r="M10" t="str">
-            <v>CD减少lv1/2/3</v>
+            <v>CD减少lv1/2/3/23级加攻击</v>
           </cell>
           <cell r="N10">
             <v>0.3</v>
           </cell>
           <cell r="O10">
+            <v>0.4</v>
+          </cell>
+          <cell r="P10">
             <v>0.5</v>
           </cell>
-          <cell r="P10">
-            <v>0.6</v>
+          <cell r="Q10">
+            <v>0.2</v>
           </cell>
           <cell r="R10">
             <v>1</v>
           </cell>
           <cell r="S10">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T10">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="11">
@@ -962,28 +987,28 @@
             <v>2</v>
           </cell>
           <cell r="C11">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D11">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E11">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F11" t="str">
-            <v>中毒</v>
+            <v>单体中毒，2级2目标，3级3目标</v>
           </cell>
           <cell r="G11">
-            <v>75</v>
+            <v>300</v>
           </cell>
           <cell r="H11">
-            <v>337</v>
+            <v>540</v>
           </cell>
           <cell r="I11">
-            <v>1518</v>
+            <v>1296</v>
           </cell>
           <cell r="J11">
-            <v>1</v>
+            <v>2.5</v>
           </cell>
           <cell r="K11">
             <v>1</v>
@@ -1010,10 +1035,10 @@
             <v>1</v>
           </cell>
           <cell r="S11">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T11">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="12">
@@ -1021,28 +1046,28 @@
             <v>炸弹</v>
           </cell>
           <cell r="B12">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="C12">
             <v>1</v>
           </cell>
           <cell r="D12">
-            <v>200</v>
+            <v>70</v>
           </cell>
           <cell r="E12">
-            <v>200</v>
+            <v>70</v>
           </cell>
           <cell r="F12" t="str">
-            <v>消耗型</v>
+            <v>造成一次高额伤害，2级减速，3级眩晕，</v>
           </cell>
           <cell r="G12">
             <v>2000</v>
           </cell>
           <cell r="H12">
-            <v>9000</v>
+            <v>7200</v>
           </cell>
           <cell r="I12">
-            <v>40500</v>
+            <v>25920</v>
           </cell>
           <cell r="J12">
             <v>0</v>
@@ -1054,7 +1079,7 @@
             <v>7.5</v>
           </cell>
           <cell r="M12" t="str">
-            <v>伤害/眩晕</v>
+            <v>伤害/眩晕/2级减速率</v>
           </cell>
           <cell r="N12">
             <v>2000</v>
@@ -1062,14 +1087,17 @@
           <cell r="O12">
             <v>3</v>
           </cell>
+          <cell r="P12">
+            <v>0.5</v>
+          </cell>
           <cell r="R12">
             <v>1</v>
           </cell>
           <cell r="S12">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T12">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="13">
@@ -1080,25 +1108,25 @@
             <v>1</v>
           </cell>
           <cell r="C13">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="D13">
             <v>100</v>
           </cell>
           <cell r="E13">
-            <v>100</v>
+            <v>80</v>
           </cell>
           <cell r="F13" t="str">
-            <v>偷金币</v>
+            <v>攻击偷金币，2级远距离，3级偷2此</v>
           </cell>
           <cell r="G13">
-            <v>50</v>
+            <v>40</v>
           </cell>
           <cell r="H13">
-            <v>225</v>
+            <v>144</v>
           </cell>
           <cell r="I13">
-            <v>1012</v>
+            <v>518</v>
           </cell>
           <cell r="J13">
             <v>1</v>
@@ -1119,7 +1147,7 @@
             <v>4</v>
           </cell>
           <cell r="P13">
-            <v>15</v>
+            <v>8</v>
           </cell>
           <cell r="Q13">
             <v>0.5</v>
@@ -1128,10 +1156,10 @@
             <v>1</v>
           </cell>
           <cell r="S13">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T13">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="14">
@@ -1142,28 +1170,28 @@
             <v>2</v>
           </cell>
           <cell r="C14">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D14">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E14">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F14" t="str">
-            <v>抛物线</v>
+            <v>抛物线群体，2级大范围 ，3级2连发</v>
           </cell>
           <cell r="G14">
-            <v>65</v>
+            <v>130</v>
           </cell>
           <cell r="H14">
-            <v>292</v>
+            <v>468</v>
           </cell>
           <cell r="I14">
-            <v>1316</v>
+            <v>842</v>
           </cell>
           <cell r="J14">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K14">
             <v>3</v>
@@ -1172,19 +1200,22 @@
             <v>9</v>
           </cell>
           <cell r="M14" t="str">
-            <v>远处增伤率lv1/2/3</v>
+            <v>远处增伤率lv1/2/3/3级目标数</v>
           </cell>
           <cell r="N14">
             <v>0.06</v>
           </cell>
+          <cell r="O14">
+            <v>2</v>
+          </cell>
           <cell r="R14">
             <v>1</v>
           </cell>
           <cell r="S14">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T14">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="15">
@@ -1192,31 +1223,31 @@
             <v>魔像</v>
           </cell>
           <cell r="B15">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="C15">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D15">
-            <v>150</v>
+            <v>400</v>
           </cell>
           <cell r="E15">
-            <v>150</v>
+            <v>560</v>
           </cell>
           <cell r="F15" t="str">
-            <v>击退</v>
+            <v>扇形击退，2级远距离，3级眩晕</v>
           </cell>
           <cell r="G15">
-            <v>100</v>
+            <v>467</v>
           </cell>
           <cell r="H15">
-            <v>450</v>
+            <v>1681</v>
           </cell>
           <cell r="I15">
-            <v>2025</v>
+            <v>6052</v>
           </cell>
           <cell r="J15">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K15">
             <v>3</v>
@@ -1237,10 +1268,10 @@
             <v>1</v>
           </cell>
           <cell r="S15">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T15">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="16">
@@ -1251,28 +1282,28 @@
             <v>2</v>
           </cell>
           <cell r="C16">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D16">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E16">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F16" t="str">
-            <v>穿透</v>
+            <v>直线穿透，2级加粗，3级超长</v>
           </cell>
           <cell r="G16">
-            <v>100</v>
+            <v>200</v>
           </cell>
           <cell r="H16">
-            <v>450</v>
+            <v>720</v>
           </cell>
           <cell r="I16">
-            <v>2025</v>
+            <v>2592</v>
           </cell>
           <cell r="J16">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K16">
             <v>3</v>
@@ -1290,10 +1321,10 @@
             <v>1</v>
           </cell>
           <cell r="S16">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T16">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="17">
@@ -1301,60 +1332,112 @@
             <v>奥术天球</v>
           </cell>
           <cell r="B17">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="C17">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D17">
-            <v>150</v>
+            <v>400</v>
           </cell>
           <cell r="E17">
-            <v>150</v>
+            <v>560</v>
           </cell>
           <cell r="F17" t="str">
-            <v>多弹道</v>
+            <v>同时发射多弹道，2级加量，3级加范围</v>
           </cell>
           <cell r="G17">
-            <v>50</v>
+            <v>467</v>
           </cell>
           <cell r="H17">
-            <v>225</v>
+            <v>630</v>
           </cell>
           <cell r="I17">
-            <v>1518</v>
+            <v>2269</v>
           </cell>
           <cell r="J17">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K17">
             <v>1</v>
           </cell>
           <cell r="L17">
-            <v>9</v>
+            <v>7.5</v>
           </cell>
           <cell r="M17" t="str">
-            <v>1、2级弹药/3级弹药</v>
+            <v>1级弹药/2级弹药/3级弹药</v>
           </cell>
           <cell r="N17">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="O17">
-            <v>9</v>
+            <v>8</v>
+          </cell>
+          <cell r="P17">
+            <v>8</v>
           </cell>
           <cell r="R17">
             <v>1</v>
           </cell>
           <cell r="S17">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T17">
-            <v>20.25</v>
+            <v>12.96</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>破甲弹</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>时空结界</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>净化药水</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>强化子弹</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>雷电领域</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>哥布林召唤</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>地狱烈焰</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>黑洞</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1621,7 +1704,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1651,10 +1734,10 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1"/>
@@ -1717,10 +1800,10 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3"/>
@@ -1870,7 +1953,7 @@
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1895,7 +1978,7 @@
       <c r="I9" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1915,12 +1998,12 @@
       </c>
       <c r="H10">
         <f>VLOOKUP(I10,[1]防御塔!$A:$T,13+J10,FALSE)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1942,10 +2025,10 @@
         <f>VLOOKUP(I11,[1]防御塔!$A:$T,13+J11,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1967,10 +2050,10 @@
         <f>VLOOKUP(I12,[1]防御塔!$A:$T,13+J12,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1992,10 +2075,10 @@
         <f>VLOOKUP(I13,[1]防御塔!$A:$T,13+J13,FALSE)</f>
         <v>480</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="7">
         <v>3</v>
       </c>
     </row>
